--- a/graphs_market_aware.xlsx
+++ b/graphs_market_aware.xlsx
@@ -19,130 +19,130 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
-    <t>[3.9136-3.9249]</t>
-  </si>
-  <si>
-    <t>[3.9249-3.9361]</t>
-  </si>
-  <si>
-    <t>[3.9361-3.9473]</t>
-  </si>
-  <si>
-    <t>[3.9473-3.9585]</t>
-  </si>
-  <si>
-    <t>[3.9585-3.9697]</t>
-  </si>
-  <si>
-    <t>[3.9697-3.9809]</t>
-  </si>
-  <si>
-    <t>[3.9809-3.9921]</t>
-  </si>
-  <si>
-    <t>[3.9921-4.0034]</t>
-  </si>
-  <si>
-    <t>[4.0034-4.0146]</t>
-  </si>
-  <si>
-    <t>[4.0146-4.0258]</t>
-  </si>
-  <si>
-    <t>[4.0258-4.037]</t>
-  </si>
-  <si>
-    <t>[4.037-4.0482]</t>
-  </si>
-  <si>
-    <t>[4.0482-4.0594]</t>
-  </si>
-  <si>
-    <t>[4.0594-4.0706]</t>
-  </si>
-  <si>
-    <t>[10.128-10.194]</t>
-  </si>
-  <si>
-    <t>[10.194-10.261]</t>
-  </si>
-  <si>
-    <t>[10.261-10.327]</t>
-  </si>
-  <si>
-    <t>[10.327-10.393]</t>
-  </si>
-  <si>
-    <t>[10.393-10.459]</t>
-  </si>
-  <si>
-    <t>[10.459-10.525]</t>
-  </si>
-  <si>
-    <t>[10.525-10.591]</t>
-  </si>
-  <si>
-    <t>[10.591-10.657]</t>
-  </si>
-  <si>
-    <t>[10.657-10.723]</t>
-  </si>
-  <si>
-    <t>[10.723-10.789]</t>
-  </si>
-  <si>
-    <t>[10.789-10.855]</t>
-  </si>
-  <si>
-    <t>[10.855-10.921]</t>
-  </si>
-  <si>
-    <t>[10.921-10.987]</t>
-  </si>
-  <si>
-    <t>[10.987-11.054]</t>
-  </si>
-  <si>
-    <t>[84.25-84.31]</t>
-  </si>
-  <si>
-    <t>[84.31-84.36]</t>
-  </si>
-  <si>
-    <t>[84.36-84.41]</t>
-  </si>
-  <si>
-    <t>[84.41-84.46]</t>
-  </si>
-  <si>
-    <t>[84.46-84.52]</t>
-  </si>
-  <si>
-    <t>[84.52-84.57]</t>
-  </si>
-  <si>
-    <t>[84.57-84.62]</t>
-  </si>
-  <si>
-    <t>[84.62-84.68]</t>
-  </si>
-  <si>
-    <t>[84.68-84.73]</t>
-  </si>
-  <si>
-    <t>[84.73-84.78]</t>
-  </si>
-  <si>
-    <t>[84.78-84.83]</t>
-  </si>
-  <si>
-    <t>[84.83-84.89]</t>
-  </si>
-  <si>
-    <t>[84.89-84.94]</t>
-  </si>
-  <si>
-    <t>[84.94-84.99]</t>
+    <t>[3.8826-3.8933]</t>
+  </si>
+  <si>
+    <t>[3.8933-3.9039]</t>
+  </si>
+  <si>
+    <t>[3.9039-3.9145]</t>
+  </si>
+  <si>
+    <t>[3.9145-3.9252]</t>
+  </si>
+  <si>
+    <t>[3.9252-3.9358]</t>
+  </si>
+  <si>
+    <t>[3.9358-3.9464]</t>
+  </si>
+  <si>
+    <t>[3.9464-3.9571]</t>
+  </si>
+  <si>
+    <t>[3.9571-3.9677]</t>
+  </si>
+  <si>
+    <t>[3.9677-3.9783]</t>
+  </si>
+  <si>
+    <t>[3.9783-3.9889]</t>
+  </si>
+  <si>
+    <t>[3.9889-3.9996]</t>
+  </si>
+  <si>
+    <t>[3.9996-4.0102]</t>
+  </si>
+  <si>
+    <t>[4.0102-4.0208]</t>
+  </si>
+  <si>
+    <t>[4.0208-4.0315]</t>
+  </si>
+  <si>
+    <t>[10.346-10.408]</t>
+  </si>
+  <si>
+    <t>[10.408-10.471]</t>
+  </si>
+  <si>
+    <t>[10.471-10.533]</t>
+  </si>
+  <si>
+    <t>[10.533-10.595]</t>
+  </si>
+  <si>
+    <t>[10.595-10.657]</t>
+  </si>
+  <si>
+    <t>[10.657-10.719]</t>
+  </si>
+  <si>
+    <t>[10.719-10.781]</t>
+  </si>
+  <si>
+    <t>[10.781-10.843]</t>
+  </si>
+  <si>
+    <t>[10.843-10.905]</t>
+  </si>
+  <si>
+    <t>[10.905-10.967]</t>
+  </si>
+  <si>
+    <t>[10.967-11.029]</t>
+  </si>
+  <si>
+    <t>[11.029-11.091]</t>
+  </si>
+  <si>
+    <t>[11.091-11.153]</t>
+  </si>
+  <si>
+    <t>[11.153-11.215]</t>
+  </si>
+  <si>
+    <t>[83.67-83.78]</t>
+  </si>
+  <si>
+    <t>[83.78-83.88]</t>
+  </si>
+  <si>
+    <t>[83.88-83.99]</t>
+  </si>
+  <si>
+    <t>[83.99-84.1]</t>
+  </si>
+  <si>
+    <t>[84.1-84.2]</t>
+  </si>
+  <si>
+    <t>[84.2-84.31]</t>
+  </si>
+  <si>
+    <t>[84.31-84.42]</t>
+  </si>
+  <si>
+    <t>[84.42-84.52]</t>
+  </si>
+  <si>
+    <t>[84.52-84.63]</t>
+  </si>
+  <si>
+    <t>[84.63-84.74]</t>
+  </si>
+  <si>
+    <t>[84.74-84.85]</t>
+  </si>
+  <si>
+    <t>[84.85-84.95]</t>
+  </si>
+  <si>
+    <t>[84.95-85.06]</t>
+  </si>
+  <si>
+    <t>[85.06-85.17]</t>
   </si>
 </sst>
 </file>
@@ -248,31 +248,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -287,22 +287,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -435,46 +435,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.9136-3.9249]</c:v>
+                  <c:v>[3.8826-3.8933]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.9249-3.9361]</c:v>
+                  <c:v>[3.8933-3.9039]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.9361-3.9473]</c:v>
+                  <c:v>[3.9039-3.9145]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.9473-3.9585]</c:v>
+                  <c:v>[3.9145-3.9252]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.9585-3.9697]</c:v>
+                  <c:v>[3.9252-3.9358]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.9697-3.9809]</c:v>
+                  <c:v>[3.9358-3.9464]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[3.9809-3.9921]</c:v>
+                  <c:v>[3.9464-3.9571]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[3.9921-4.0034]</c:v>
+                  <c:v>[3.9571-3.9677]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[4.0034-4.0146]</c:v>
+                  <c:v>[3.9677-3.9783]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[4.0146-4.0258]</c:v>
+                  <c:v>[3.9783-3.9889]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[4.0258-4.037]</c:v>
+                  <c:v>[3.9889-3.9996]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[4.037-4.0482]</c:v>
+                  <c:v>[3.9996-4.0102]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.0482-4.0594]</c:v>
+                  <c:v>[4.0102-4.0208]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.0594-4.0706]</c:v>
+                  <c:v>[4.0208-4.0315]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -486,43 +486,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -662,46 +662,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[10.128-10.194]</c:v>
+                  <c:v>[10.346-10.408]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[10.194-10.261]</c:v>
+                  <c:v>[10.408-10.471]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[10.261-10.327]</c:v>
+                  <c:v>[10.471-10.533]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.327-10.393]</c:v>
+                  <c:v>[10.533-10.595]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.393-10.459]</c:v>
+                  <c:v>[10.595-10.657]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[10.459-10.525]</c:v>
+                  <c:v>[10.657-10.719]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.525-10.591]</c:v>
+                  <c:v>[10.719-10.781]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[10.591-10.657]</c:v>
+                  <c:v>[10.781-10.843]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[10.657-10.723]</c:v>
+                  <c:v>[10.843-10.905]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[10.723-10.789]</c:v>
+                  <c:v>[10.905-10.967]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[10.789-10.855]</c:v>
+                  <c:v>[10.967-11.029]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[10.855-10.921]</c:v>
+                  <c:v>[11.029-11.091]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[10.921-10.987]</c:v>
+                  <c:v>[11.091-11.153]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[10.987-11.054]</c:v>
+                  <c:v>[11.153-11.215]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -716,40 +716,40 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -889,46 +889,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[84.25-84.31]</c:v>
+                  <c:v>[83.67-83.78]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[84.31-84.36]</c:v>
+                  <c:v>[83.78-83.88]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[84.36-84.41]</c:v>
+                  <c:v>[83.88-83.99]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[84.41-84.46]</c:v>
+                  <c:v>[83.99-84.1]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[84.46-84.52]</c:v>
+                  <c:v>[84.1-84.2]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[84.52-84.57]</c:v>
+                  <c:v>[84.2-84.31]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[84.57-84.62]</c:v>
+                  <c:v>[84.31-84.42]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.62-84.68]</c:v>
+                  <c:v>[84.42-84.52]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.68-84.73]</c:v>
+                  <c:v>[84.52-84.63]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.73-84.78]</c:v>
+                  <c:v>[84.63-84.74]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.78-84.83]</c:v>
+                  <c:v>[84.74-84.85]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.83-84.89]</c:v>
+                  <c:v>[84.85-84.95]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.89-84.94]</c:v>
+                  <c:v>[84.95-85.06]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[84.94-84.99]</c:v>
+                  <c:v>[85.06-85.17]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -940,46 +940,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1509,7 +1509,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1517,31 +1517,31 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1549,23 +1549,23 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1619,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1627,7 +1627,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1635,7 +1635,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1643,7 +1643,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1651,7 +1651,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1659,7 +1659,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1667,7 +1667,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1675,7 +1675,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1683,7 +1683,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1691,7 +1691,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1699,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1737,7 +1737,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1745,7 +1745,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1753,7 +1753,7 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1761,7 +1761,7 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1769,7 +1769,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1777,7 +1777,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1785,7 +1785,7 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1793,7 +1793,7 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1801,7 +1801,7 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1809,7 +1809,7 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1817,7 +1817,7 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1825,7 +1825,7 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>28</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1887,7 +1887,7 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>34</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>36</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>37</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>38</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>39</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>40</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1959,7 +1959,7 @@
         <v>41</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/graphs_market_aware.xlsx
+++ b/graphs_market_aware.xlsx
@@ -19,130 +19,130 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
-    <t>[3.8826-3.8933]</t>
-  </si>
-  <si>
-    <t>[3.8933-3.9039]</t>
-  </si>
-  <si>
-    <t>[3.9039-3.9145]</t>
-  </si>
-  <si>
-    <t>[3.9145-3.9252]</t>
-  </si>
-  <si>
-    <t>[3.9252-3.9358]</t>
-  </si>
-  <si>
-    <t>[3.9358-3.9464]</t>
-  </si>
-  <si>
-    <t>[3.9464-3.9571]</t>
-  </si>
-  <si>
-    <t>[3.9571-3.9677]</t>
-  </si>
-  <si>
-    <t>[3.9677-3.9783]</t>
-  </si>
-  <si>
-    <t>[3.9783-3.9889]</t>
-  </si>
-  <si>
-    <t>[3.9889-3.9996]</t>
-  </si>
-  <si>
-    <t>[3.9996-4.0102]</t>
-  </si>
-  <si>
-    <t>[4.0102-4.0208]</t>
-  </si>
-  <si>
-    <t>[4.0208-4.0315]</t>
-  </si>
-  <si>
-    <t>[10.346-10.408]</t>
-  </si>
-  <si>
-    <t>[10.408-10.471]</t>
-  </si>
-  <si>
-    <t>[10.471-10.533]</t>
-  </si>
-  <si>
-    <t>[10.533-10.595]</t>
-  </si>
-  <si>
-    <t>[10.595-10.657]</t>
-  </si>
-  <si>
-    <t>[10.657-10.719]</t>
-  </si>
-  <si>
-    <t>[10.719-10.781]</t>
-  </si>
-  <si>
-    <t>[10.781-10.843]</t>
-  </si>
-  <si>
-    <t>[10.843-10.905]</t>
-  </si>
-  <si>
-    <t>[10.905-10.967]</t>
-  </si>
-  <si>
-    <t>[10.967-11.029]</t>
-  </si>
-  <si>
-    <t>[11.029-11.091]</t>
-  </si>
-  <si>
-    <t>[11.091-11.153]</t>
-  </si>
-  <si>
-    <t>[11.153-11.215]</t>
-  </si>
-  <si>
-    <t>[83.67-83.78]</t>
-  </si>
-  <si>
-    <t>[83.78-83.88]</t>
-  </si>
-  <si>
-    <t>[83.88-83.99]</t>
-  </si>
-  <si>
-    <t>[83.99-84.1]</t>
-  </si>
-  <si>
-    <t>[84.1-84.2]</t>
-  </si>
-  <si>
-    <t>[84.2-84.31]</t>
-  </si>
-  <si>
-    <t>[84.31-84.42]</t>
-  </si>
-  <si>
-    <t>[84.42-84.52]</t>
-  </si>
-  <si>
-    <t>[84.52-84.63]</t>
-  </si>
-  <si>
-    <t>[84.63-84.74]</t>
-  </si>
-  <si>
-    <t>[84.74-84.85]</t>
-  </si>
-  <si>
-    <t>[84.85-84.95]</t>
-  </si>
-  <si>
-    <t>[84.95-85.06]</t>
-  </si>
-  <si>
-    <t>[85.06-85.17]</t>
+    <t>[3.88-3.89]</t>
+  </si>
+  <si>
+    <t>[3.89-3.9]</t>
+  </si>
+  <si>
+    <t>[3.9-3.92]</t>
+  </si>
+  <si>
+    <t>[3.92-3.93]</t>
+  </si>
+  <si>
+    <t>[3.93-3.95]</t>
+  </si>
+  <si>
+    <t>[3.95-3.96]</t>
+  </si>
+  <si>
+    <t>[3.96-3.98]</t>
+  </si>
+  <si>
+    <t>[3.98-3.99]</t>
+  </si>
+  <si>
+    <t>[3.99-4.01]</t>
+  </si>
+  <si>
+    <t>[4.01-4.02]</t>
+  </si>
+  <si>
+    <t>[4.02-4.04]</t>
+  </si>
+  <si>
+    <t>[4.04-4.05]</t>
+  </si>
+  <si>
+    <t>[4.05-4.07]</t>
+  </si>
+  <si>
+    <t>[4.07-4.08]</t>
+  </si>
+  <si>
+    <t>[10.02-10.11]</t>
+  </si>
+  <si>
+    <t>[10.11-10.2]</t>
+  </si>
+  <si>
+    <t>[10.2-10.28]</t>
+  </si>
+  <si>
+    <t>[10.28-10.37]</t>
+  </si>
+  <si>
+    <t>[10.37-10.46]</t>
+  </si>
+  <si>
+    <t>[10.46-10.54]</t>
+  </si>
+  <si>
+    <t>[10.54-10.63]</t>
+  </si>
+  <si>
+    <t>[10.63-10.72]</t>
+  </si>
+  <si>
+    <t>[10.72-10.8]</t>
+  </si>
+  <si>
+    <t>[10.8-10.89]</t>
+  </si>
+  <si>
+    <t>[10.89-10.98]</t>
+  </si>
+  <si>
+    <t>[10.98-11.06]</t>
+  </si>
+  <si>
+    <t>[11.06-11.15]</t>
+  </si>
+  <si>
+    <t>[11.15-11.24]</t>
+  </si>
+  <si>
+    <t>[83.33-83.45]</t>
+  </si>
+  <si>
+    <t>[83.45-83.57]</t>
+  </si>
+  <si>
+    <t>[83.57-83.7]</t>
+  </si>
+  <si>
+    <t>[83.7-83.82]</t>
+  </si>
+  <si>
+    <t>[83.82-83.95]</t>
+  </si>
+  <si>
+    <t>[83.95-84.07]</t>
+  </si>
+  <si>
+    <t>[84.07-84.19]</t>
+  </si>
+  <si>
+    <t>[84.19-84.32]</t>
+  </si>
+  <si>
+    <t>[84.32-84.44]</t>
+  </si>
+  <si>
+    <t>[84.44-84.57]</t>
+  </si>
+  <si>
+    <t>[84.57-84.69]</t>
+  </si>
+  <si>
+    <t>[84.69-84.81]</t>
+  </si>
+  <si>
+    <t>[84.81-84.94]</t>
+  </si>
+  <si>
+    <t>[84.94-85.06]</t>
   </si>
 </sst>
 </file>
@@ -257,22 +257,22 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -287,22 +287,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>23</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -435,46 +435,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.8826-3.8933]</c:v>
+                  <c:v>[3.88-3.89]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.8933-3.9039]</c:v>
+                  <c:v>[3.89-3.9]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.9039-3.9145]</c:v>
+                  <c:v>[3.9-3.92]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.9145-3.9252]</c:v>
+                  <c:v>[3.92-3.93]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.9252-3.9358]</c:v>
+                  <c:v>[3.93-3.95]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.9358-3.9464]</c:v>
+                  <c:v>[3.95-3.96]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[3.9464-3.9571]</c:v>
+                  <c:v>[3.96-3.98]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[3.9571-3.9677]</c:v>
+                  <c:v>[3.98-3.99]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[3.9677-3.9783]</c:v>
+                  <c:v>[3.99-4.01]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[3.9783-3.9889]</c:v>
+                  <c:v>[4.01-4.02]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[3.9889-3.9996]</c:v>
+                  <c:v>[4.02-4.04]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[3.9996-4.0102]</c:v>
+                  <c:v>[4.04-4.05]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.0102-4.0208]</c:v>
+                  <c:v>[4.05-4.07]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.0208-4.0315]</c:v>
+                  <c:v>[4.07-4.08]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -486,43 +486,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -662,46 +662,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[10.346-10.408]</c:v>
+                  <c:v>[10.02-10.11]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[10.408-10.471]</c:v>
+                  <c:v>[10.11-10.2]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[10.471-10.533]</c:v>
+                  <c:v>[10.2-10.28]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.533-10.595]</c:v>
+                  <c:v>[10.28-10.37]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.595-10.657]</c:v>
+                  <c:v>[10.37-10.46]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[10.657-10.719]</c:v>
+                  <c:v>[10.46-10.54]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.719-10.781]</c:v>
+                  <c:v>[10.54-10.63]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[10.781-10.843]</c:v>
+                  <c:v>[10.63-10.72]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[10.843-10.905]</c:v>
+                  <c:v>[10.72-10.8]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[10.905-10.967]</c:v>
+                  <c:v>[10.8-10.89]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[10.967-11.029]</c:v>
+                  <c:v>[10.89-10.98]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[11.029-11.091]</c:v>
+                  <c:v>[10.98-11.06]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[11.091-11.153]</c:v>
+                  <c:v>[11.06-11.15]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[11.153-11.215]</c:v>
+                  <c:v>[11.15-11.24]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -713,46 +713,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -889,46 +889,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[83.67-83.78]</c:v>
+                  <c:v>[83.33-83.45]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[83.78-83.88]</c:v>
+                  <c:v>[83.45-83.57]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[83.88-83.99]</c:v>
+                  <c:v>[83.57-83.7]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[83.99-84.1]</c:v>
+                  <c:v>[83.7-83.82]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[84.1-84.2]</c:v>
+                  <c:v>[83.82-83.95]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[84.2-84.31]</c:v>
+                  <c:v>[83.95-84.07]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[84.31-84.42]</c:v>
+                  <c:v>[84.07-84.19]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.42-84.52]</c:v>
+                  <c:v>[84.19-84.32]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.52-84.63]</c:v>
+                  <c:v>[84.32-84.44]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.63-84.74]</c:v>
+                  <c:v>[84.44-84.57]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.74-84.85]</c:v>
+                  <c:v>[84.57-84.69]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.85-84.95]</c:v>
+                  <c:v>[84.69-84.81]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.95-85.06]</c:v>
+                  <c:v>[84.81-84.94]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[85.06-85.17]</c:v>
+                  <c:v>[84.94-85.06]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -940,46 +940,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1520,7 +1520,7 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1528,44 +1528,44 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1619,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1627,7 +1627,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1635,7 +1635,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1643,7 +1643,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1651,7 +1651,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1659,7 +1659,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1675,7 +1675,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1683,7 +1683,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1691,7 +1691,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1699,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1729,7 +1729,7 @@
         <v>14</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1737,7 +1737,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1745,7 +1745,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1753,7 +1753,7 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1761,7 +1761,7 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1777,7 +1777,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1785,7 +1785,7 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1793,7 +1793,7 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1801,7 +1801,7 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1809,7 +1809,7 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1817,7 +1817,7 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1825,7 +1825,7 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1833,7 +1833,7 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1855,7 +1855,7 @@
         <v>28</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1887,7 +1887,7 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>34</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>36</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>37</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>38</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>39</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>40</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1959,7 +1959,7 @@
         <v>41</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/graphs_market_aware.xlsx
+++ b/graphs_market_aware.xlsx
@@ -19,130 +19,130 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
-    <t>[3.88-3.89]</t>
-  </si>
-  <si>
-    <t>[3.89-3.9]</t>
-  </si>
-  <si>
-    <t>[3.9-3.92]</t>
-  </si>
-  <si>
-    <t>[3.92-3.93]</t>
-  </si>
-  <si>
-    <t>[3.93-3.95]</t>
-  </si>
-  <si>
-    <t>[3.95-3.96]</t>
-  </si>
-  <si>
-    <t>[3.96-3.98]</t>
-  </si>
-  <si>
-    <t>[3.98-3.99]</t>
-  </si>
-  <si>
-    <t>[3.99-4.01]</t>
-  </si>
-  <si>
-    <t>[4.01-4.02]</t>
-  </si>
-  <si>
-    <t>[4.02-4.04]</t>
-  </si>
-  <si>
-    <t>[4.04-4.05]</t>
-  </si>
-  <si>
-    <t>[4.05-4.07]</t>
-  </si>
-  <si>
-    <t>[4.07-4.08]</t>
-  </si>
-  <si>
-    <t>[10.02-10.11]</t>
-  </si>
-  <si>
-    <t>[10.11-10.2]</t>
-  </si>
-  <si>
-    <t>[10.2-10.28]</t>
-  </si>
-  <si>
-    <t>[10.28-10.37]</t>
-  </si>
-  <si>
-    <t>[10.37-10.46]</t>
-  </si>
-  <si>
-    <t>[10.46-10.54]</t>
-  </si>
-  <si>
-    <t>[10.54-10.63]</t>
-  </si>
-  <si>
-    <t>[10.63-10.72]</t>
-  </si>
-  <si>
-    <t>[10.72-10.8]</t>
-  </si>
-  <si>
-    <t>[10.8-10.89]</t>
-  </si>
-  <si>
-    <t>[10.89-10.98]</t>
-  </si>
-  <si>
-    <t>[10.98-11.06]</t>
-  </si>
-  <si>
-    <t>[11.06-11.15]</t>
-  </si>
-  <si>
-    <t>[11.15-11.24]</t>
-  </si>
-  <si>
-    <t>[83.33-83.45]</t>
-  </si>
-  <si>
-    <t>[83.45-83.57]</t>
-  </si>
-  <si>
-    <t>[83.57-83.7]</t>
-  </si>
-  <si>
-    <t>[83.7-83.82]</t>
-  </si>
-  <si>
-    <t>[83.82-83.95]</t>
-  </si>
-  <si>
-    <t>[83.95-84.07]</t>
-  </si>
-  <si>
-    <t>[84.07-84.19]</t>
-  </si>
-  <si>
-    <t>[84.19-84.32]</t>
-  </si>
-  <si>
-    <t>[84.32-84.44]</t>
-  </si>
-  <si>
-    <t>[84.44-84.57]</t>
-  </si>
-  <si>
-    <t>[84.57-84.69]</t>
-  </si>
-  <si>
-    <t>[84.69-84.81]</t>
-  </si>
-  <si>
-    <t>[84.81-84.94]</t>
-  </si>
-  <si>
-    <t>[84.94-85.06]</t>
+    <t>[3.907-3.917]</t>
+  </si>
+  <si>
+    <t>[3.917-3.928]</t>
+  </si>
+  <si>
+    <t>[3.928-3.938]</t>
+  </si>
+  <si>
+    <t>[3.938-3.948]</t>
+  </si>
+  <si>
+    <t>[3.948-3.959]</t>
+  </si>
+  <si>
+    <t>[3.959-3.969]</t>
+  </si>
+  <si>
+    <t>[3.969-3.979]</t>
+  </si>
+  <si>
+    <t>[3.979-3.99]</t>
+  </si>
+  <si>
+    <t>[3.99-4.0]</t>
+  </si>
+  <si>
+    <t>[4.0-4.01]</t>
+  </si>
+  <si>
+    <t>[4.01-4.021]</t>
+  </si>
+  <si>
+    <t>[4.021-4.031]</t>
+  </si>
+  <si>
+    <t>[4.031-4.041]</t>
+  </si>
+  <si>
+    <t>[4.041-4.052]</t>
+  </si>
+  <si>
+    <t>[10.23-10.29]</t>
+  </si>
+  <si>
+    <t>[10.29-10.35]</t>
+  </si>
+  <si>
+    <t>[10.35-10.41]</t>
+  </si>
+  <si>
+    <t>[10.41-10.48]</t>
+  </si>
+  <si>
+    <t>[10.48-10.54]</t>
+  </si>
+  <si>
+    <t>[10.54-10.6]</t>
+  </si>
+  <si>
+    <t>[10.6-10.66]</t>
+  </si>
+  <si>
+    <t>[10.66-10.72]</t>
+  </si>
+  <si>
+    <t>[10.72-10.78]</t>
+  </si>
+  <si>
+    <t>[10.78-10.84]</t>
+  </si>
+  <si>
+    <t>[10.84-10.9]</t>
+  </si>
+  <si>
+    <t>[10.9-10.96]</t>
+  </si>
+  <si>
+    <t>[10.96-11.02]</t>
+  </si>
+  <si>
+    <t>[11.02-11.08]</t>
+  </si>
+  <si>
+    <t>[83.95-84.03]</t>
+  </si>
+  <si>
+    <t>[84.03-84.11]</t>
+  </si>
+  <si>
+    <t>[84.11-84.19]</t>
+  </si>
+  <si>
+    <t>[84.19-84.27]</t>
+  </si>
+  <si>
+    <t>[84.27-84.35]</t>
+  </si>
+  <si>
+    <t>[84.35-84.43]</t>
+  </si>
+  <si>
+    <t>[84.43-84.51]</t>
+  </si>
+  <si>
+    <t>[84.51-84.59]</t>
+  </si>
+  <si>
+    <t>[84.59-84.67]</t>
+  </si>
+  <si>
+    <t>[84.67-84.75]</t>
+  </si>
+  <si>
+    <t>[84.75-84.83]</t>
+  </si>
+  <si>
+    <t>[84.83-84.91]</t>
+  </si>
+  <si>
+    <t>[84.91-84.99]</t>
+  </si>
+  <si>
+    <t>[84.99-85.07]</t>
   </si>
 </sst>
 </file>
@@ -251,28 +251,28 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -287,28 +287,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -435,46 +435,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.88-3.89]</c:v>
+                  <c:v>[3.907-3.917]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.89-3.9]</c:v>
+                  <c:v>[3.917-3.928]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.9-3.92]</c:v>
+                  <c:v>[3.928-3.938]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.92-3.93]</c:v>
+                  <c:v>[3.938-3.948]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.93-3.95]</c:v>
+                  <c:v>[3.948-3.959]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.95-3.96]</c:v>
+                  <c:v>[3.959-3.969]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[3.96-3.98]</c:v>
+                  <c:v>[3.969-3.979]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[3.98-3.99]</c:v>
+                  <c:v>[3.979-3.99]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[3.99-4.01]</c:v>
+                  <c:v>[3.99-4.0]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[4.01-4.02]</c:v>
+                  <c:v>[4.0-4.01]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[4.02-4.04]</c:v>
+                  <c:v>[4.01-4.021]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[4.04-4.05]</c:v>
+                  <c:v>[4.021-4.031]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.05-4.07]</c:v>
+                  <c:v>[4.031-4.041]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.07-4.08]</c:v>
+                  <c:v>[4.041-4.052]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -486,40 +486,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
@@ -662,46 +662,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[10.02-10.11]</c:v>
+                  <c:v>[10.23-10.29]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[10.11-10.2]</c:v>
+                  <c:v>[10.29-10.35]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[10.2-10.28]</c:v>
+                  <c:v>[10.35-10.41]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.28-10.37]</c:v>
+                  <c:v>[10.41-10.48]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.37-10.46]</c:v>
+                  <c:v>[10.48-10.54]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[10.46-10.54]</c:v>
+                  <c:v>[10.54-10.6]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.54-10.63]</c:v>
+                  <c:v>[10.6-10.66]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[10.63-10.72]</c:v>
+                  <c:v>[10.66-10.72]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[10.72-10.8]</c:v>
+                  <c:v>[10.72-10.78]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[10.8-10.89]</c:v>
+                  <c:v>[10.78-10.84]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[10.89-10.98]</c:v>
+                  <c:v>[10.84-10.9]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[10.98-11.06]</c:v>
+                  <c:v>[10.9-10.96]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[11.06-11.15]</c:v>
+                  <c:v>[10.96-11.02]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[11.15-11.24]</c:v>
+                  <c:v>[11.02-11.08]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -719,37 +719,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2</c:v>
@@ -889,46 +889,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[83.33-83.45]</c:v>
+                  <c:v>[83.95-84.03]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[83.45-83.57]</c:v>
+                  <c:v>[84.03-84.11]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[83.57-83.7]</c:v>
+                  <c:v>[84.11-84.19]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[83.7-83.82]</c:v>
+                  <c:v>[84.19-84.27]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[83.82-83.95]</c:v>
+                  <c:v>[84.27-84.35]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[83.95-84.07]</c:v>
+                  <c:v>[84.35-84.43]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[84.07-84.19]</c:v>
+                  <c:v>[84.43-84.51]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.19-84.32]</c:v>
+                  <c:v>[84.51-84.59]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.32-84.44]</c:v>
+                  <c:v>[84.59-84.67]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.44-84.57]</c:v>
+                  <c:v>[84.67-84.75]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.57-84.69]</c:v>
+                  <c:v>[84.75-84.83]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.69-84.81]</c:v>
+                  <c:v>[84.83-84.91]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.81-84.94]</c:v>
+                  <c:v>[84.91-84.99]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[84.94-85.06]</c:v>
+                  <c:v>[84.99-85.07]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -946,40 +946,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1517,47 +1517,47 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1565,23 +1565,23 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1619,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1627,7 +1627,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1635,7 +1635,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1643,7 +1643,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1651,7 +1651,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1659,7 +1659,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1667,7 +1667,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1675,7 +1675,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1683,7 +1683,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1691,7 +1691,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1745,7 +1745,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1753,7 +1753,7 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1761,7 +1761,7 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1769,7 +1769,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1777,7 +1777,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1785,7 +1785,7 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1793,7 +1793,7 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1801,7 +1801,7 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1809,7 +1809,7 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1817,7 +1817,7 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1825,7 +1825,7 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>34</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>36</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>37</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>38</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>39</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>40</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1959,7 +1959,7 @@
         <v>41</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/graphs_market_aware.xlsx
+++ b/graphs_market_aware.xlsx
@@ -19,130 +19,130 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
-    <t>[3.907-3.917]</t>
-  </si>
-  <si>
-    <t>[3.917-3.928]</t>
-  </si>
-  <si>
-    <t>[3.928-3.938]</t>
-  </si>
-  <si>
-    <t>[3.938-3.948]</t>
-  </si>
-  <si>
-    <t>[3.948-3.959]</t>
-  </si>
-  <si>
-    <t>[3.959-3.969]</t>
-  </si>
-  <si>
-    <t>[3.969-3.979]</t>
-  </si>
-  <si>
-    <t>[3.979-3.99]</t>
-  </si>
-  <si>
-    <t>[3.99-4.0]</t>
-  </si>
-  <si>
-    <t>[4.0-4.01]</t>
-  </si>
-  <si>
-    <t>[4.01-4.021]</t>
-  </si>
-  <si>
-    <t>[4.021-4.031]</t>
-  </si>
-  <si>
-    <t>[4.031-4.041]</t>
-  </si>
-  <si>
-    <t>[4.041-4.052]</t>
-  </si>
-  <si>
-    <t>[10.23-10.29]</t>
-  </si>
-  <si>
-    <t>[10.29-10.35]</t>
-  </si>
-  <si>
-    <t>[10.35-10.41]</t>
-  </si>
-  <si>
-    <t>[10.41-10.48]</t>
-  </si>
-  <si>
-    <t>[10.48-10.54]</t>
-  </si>
-  <si>
-    <t>[10.54-10.6]</t>
-  </si>
-  <si>
-    <t>[10.6-10.66]</t>
-  </si>
-  <si>
-    <t>[10.66-10.72]</t>
-  </si>
-  <si>
-    <t>[10.72-10.78]</t>
-  </si>
-  <si>
-    <t>[10.78-10.84]</t>
-  </si>
-  <si>
-    <t>[10.84-10.9]</t>
-  </si>
-  <si>
-    <t>[10.9-10.96]</t>
-  </si>
-  <si>
-    <t>[10.96-11.02]</t>
-  </si>
-  <si>
-    <t>[11.02-11.08]</t>
-  </si>
-  <si>
-    <t>[83.95-84.03]</t>
-  </si>
-  <si>
-    <t>[84.03-84.11]</t>
-  </si>
-  <si>
-    <t>[84.11-84.19]</t>
-  </si>
-  <si>
-    <t>[84.19-84.27]</t>
-  </si>
-  <si>
-    <t>[84.27-84.35]</t>
-  </si>
-  <si>
-    <t>[84.35-84.43]</t>
-  </si>
-  <si>
-    <t>[84.43-84.51]</t>
-  </si>
-  <si>
-    <t>[84.51-84.59]</t>
-  </si>
-  <si>
-    <t>[84.59-84.67]</t>
-  </si>
-  <si>
-    <t>[84.67-84.75]</t>
-  </si>
-  <si>
-    <t>[84.75-84.83]</t>
-  </si>
-  <si>
-    <t>[84.83-84.91]</t>
-  </si>
-  <si>
-    <t>[84.91-84.99]</t>
-  </si>
-  <si>
-    <t>[84.99-85.07]</t>
+    <t>[3.941-3.944]</t>
+  </si>
+  <si>
+    <t>[3.944-3.948]</t>
+  </si>
+  <si>
+    <t>[3.948-3.951]</t>
+  </si>
+  <si>
+    <t>[3.951-3.955]</t>
+  </si>
+  <si>
+    <t>[3.955-3.958]</t>
+  </si>
+  <si>
+    <t>[3.958-3.962]</t>
+  </si>
+  <si>
+    <t>[3.962-3.965]</t>
+  </si>
+  <si>
+    <t>[3.965-3.969]</t>
+  </si>
+  <si>
+    <t>[3.969-3.972]</t>
+  </si>
+  <si>
+    <t>[3.972-3.976]</t>
+  </si>
+  <si>
+    <t>[3.976-3.979]</t>
+  </si>
+  <si>
+    <t>[3.979-3.983]</t>
+  </si>
+  <si>
+    <t>[3.983-3.986]</t>
+  </si>
+  <si>
+    <t>[3.986-3.99]</t>
+  </si>
+  <si>
+    <t>[10.61-10.63]</t>
+  </si>
+  <si>
+    <t>[10.63-10.65]</t>
+  </si>
+  <si>
+    <t>[10.65-10.67]</t>
+  </si>
+  <si>
+    <t>[10.67-10.69]</t>
+  </si>
+  <si>
+    <t>[10.69-10.71]</t>
+  </si>
+  <si>
+    <t>[10.71-10.73]</t>
+  </si>
+  <si>
+    <t>[10.73-10.75]</t>
+  </si>
+  <si>
+    <t>[10.75-10.77]</t>
+  </si>
+  <si>
+    <t>[10.77-10.79]</t>
+  </si>
+  <si>
+    <t>[10.79-10.81]</t>
+  </si>
+  <si>
+    <t>[10.81-10.83]</t>
+  </si>
+  <si>
+    <t>[10.83-10.85]</t>
+  </si>
+  <si>
+    <t>[10.85-10.87]</t>
+  </si>
+  <si>
+    <t>[10.87-10.89]</t>
+  </si>
+  <si>
+    <t>[84.09-84.14]</t>
+  </si>
+  <si>
+    <t>[84.14-84.19]</t>
+  </si>
+  <si>
+    <t>[84.19-84.24]</t>
+  </si>
+  <si>
+    <t>[84.24-84.29]</t>
+  </si>
+  <si>
+    <t>[84.29-84.34]</t>
+  </si>
+  <si>
+    <t>[84.34-84.39]</t>
+  </si>
+  <si>
+    <t>[84.39-84.44]</t>
+  </si>
+  <si>
+    <t>[84.44-84.49]</t>
+  </si>
+  <si>
+    <t>[84.49-84.54]</t>
+  </si>
+  <si>
+    <t>[84.54-84.59]</t>
+  </si>
+  <si>
+    <t>[84.59-84.64]</t>
+  </si>
+  <si>
+    <t>[84.64-84.69]</t>
+  </si>
+  <si>
+    <t>[84.69-84.74]</t>
+  </si>
+  <si>
+    <t>[84.74-84.79]</t>
   </si>
 </sst>
 </file>
@@ -248,31 +248,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -293,19 +293,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -435,46 +435,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.907-3.917]</c:v>
+                  <c:v>[3.941-3.944]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.917-3.928]</c:v>
+                  <c:v>[3.944-3.948]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.928-3.938]</c:v>
+                  <c:v>[3.948-3.951]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.938-3.948]</c:v>
+                  <c:v>[3.951-3.955]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.948-3.959]</c:v>
+                  <c:v>[3.955-3.958]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.959-3.969]</c:v>
+                  <c:v>[3.958-3.962]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[3.969-3.979]</c:v>
+                  <c:v>[3.962-3.965]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[3.979-3.99]</c:v>
+                  <c:v>[3.965-3.969]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[3.99-4.0]</c:v>
+                  <c:v>[3.969-3.972]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[4.0-4.01]</c:v>
+                  <c:v>[3.972-3.976]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[4.01-4.021]</c:v>
+                  <c:v>[3.976-3.979]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[4.021-4.031]</c:v>
+                  <c:v>[3.979-3.983]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.031-4.041]</c:v>
+                  <c:v>[3.983-3.986]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.041-4.052]</c:v>
+                  <c:v>[3.986-3.99]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -486,34 +486,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -522,10 +522,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -662,46 +662,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[10.23-10.29]</c:v>
+                  <c:v>[10.61-10.63]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[10.29-10.35]</c:v>
+                  <c:v>[10.63-10.65]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[10.35-10.41]</c:v>
+                  <c:v>[10.65-10.67]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.41-10.48]</c:v>
+                  <c:v>[10.67-10.69]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.48-10.54]</c:v>
+                  <c:v>[10.69-10.71]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[10.54-10.6]</c:v>
+                  <c:v>[10.71-10.73]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.6-10.66]</c:v>
+                  <c:v>[10.73-10.75]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[10.66-10.72]</c:v>
+                  <c:v>[10.75-10.77]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[10.72-10.78]</c:v>
+                  <c:v>[10.77-10.79]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[10.78-10.84]</c:v>
+                  <c:v>[10.79-10.81]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[10.84-10.9]</c:v>
+                  <c:v>[10.81-10.83]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[10.9-10.96]</c:v>
+                  <c:v>[10.83-10.85]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[10.96-11.02]</c:v>
+                  <c:v>[10.85-10.87]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[11.02-11.08]</c:v>
+                  <c:v>[10.87-10.89]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -713,46 +713,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -889,46 +889,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[83.95-84.03]</c:v>
+                  <c:v>[84.09-84.14]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[84.03-84.11]</c:v>
+                  <c:v>[84.14-84.19]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[84.11-84.19]</c:v>
+                  <c:v>[84.19-84.24]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[84.19-84.27]</c:v>
+                  <c:v>[84.24-84.29]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[84.27-84.35]</c:v>
+                  <c:v>[84.29-84.34]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[84.35-84.43]</c:v>
+                  <c:v>[84.34-84.39]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[84.43-84.51]</c:v>
+                  <c:v>[84.39-84.44]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.51-84.59]</c:v>
+                  <c:v>[84.44-84.49]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.59-84.67]</c:v>
+                  <c:v>[84.49-84.54]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.67-84.75]</c:v>
+                  <c:v>[84.54-84.59]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.75-84.83]</c:v>
+                  <c:v>[84.59-84.64]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.83-84.91]</c:v>
+                  <c:v>[84.64-84.69]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.91-84.99]</c:v>
+                  <c:v>[84.69-84.74]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[84.99-85.07]</c:v>
+                  <c:v>[84.74-84.79]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -946,16 +946,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -964,13 +964,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1509,7 +1509,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1533,15 +1533,15 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1549,15 +1549,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1565,15 +1565,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1611,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1619,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1627,7 +1627,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1635,7 +1635,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1643,7 +1643,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1667,7 +1667,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1675,7 +1675,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1699,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1707,7 +1707,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +1729,7 @@
         <v>14</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1745,7 +1745,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1769,7 +1769,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1793,7 +1793,7 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1801,7 +1801,7 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1809,7 +1809,7 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1817,7 +1817,7 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1833,7 +1833,7 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1871,7 +1871,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>36</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>37</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>38</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/graphs_market_aware.xlsx
+++ b/graphs_market_aware.xlsx
@@ -19,130 +19,130 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
-    <t>[3.941-3.944]</t>
-  </si>
-  <si>
-    <t>[3.944-3.948]</t>
-  </si>
-  <si>
-    <t>[3.948-3.951]</t>
-  </si>
-  <si>
-    <t>[3.951-3.955]</t>
-  </si>
-  <si>
-    <t>[3.955-3.958]</t>
-  </si>
-  <si>
-    <t>[3.958-3.962]</t>
-  </si>
-  <si>
-    <t>[3.962-3.965]</t>
-  </si>
-  <si>
-    <t>[3.965-3.969]</t>
-  </si>
-  <si>
-    <t>[3.969-3.972]</t>
-  </si>
-  <si>
-    <t>[3.972-3.976]</t>
-  </si>
-  <si>
-    <t>[3.976-3.979]</t>
-  </si>
-  <si>
-    <t>[3.979-3.983]</t>
-  </si>
-  <si>
-    <t>[3.983-3.986]</t>
-  </si>
-  <si>
-    <t>[3.986-3.99]</t>
-  </si>
-  <si>
-    <t>[10.61-10.63]</t>
-  </si>
-  <si>
-    <t>[10.63-10.65]</t>
-  </si>
-  <si>
-    <t>[10.65-10.67]</t>
-  </si>
-  <si>
-    <t>[10.67-10.69]</t>
-  </si>
-  <si>
-    <t>[10.69-10.71]</t>
-  </si>
-  <si>
-    <t>[10.71-10.73]</t>
-  </si>
-  <si>
-    <t>[10.73-10.75]</t>
-  </si>
-  <si>
-    <t>[10.75-10.77]</t>
-  </si>
-  <si>
-    <t>[10.77-10.79]</t>
-  </si>
-  <si>
-    <t>[10.79-10.81]</t>
-  </si>
-  <si>
-    <t>[10.81-10.83]</t>
-  </si>
-  <si>
-    <t>[10.83-10.85]</t>
-  </si>
-  <si>
-    <t>[10.85-10.87]</t>
-  </si>
-  <si>
-    <t>[10.87-10.89]</t>
-  </si>
-  <si>
-    <t>[84.09-84.14]</t>
-  </si>
-  <si>
-    <t>[84.14-84.19]</t>
-  </si>
-  <si>
-    <t>[84.19-84.24]</t>
-  </si>
-  <si>
-    <t>[84.24-84.29]</t>
-  </si>
-  <si>
-    <t>[84.29-84.34]</t>
-  </si>
-  <si>
-    <t>[84.34-84.39]</t>
-  </si>
-  <si>
-    <t>[84.39-84.44]</t>
-  </si>
-  <si>
-    <t>[84.44-84.49]</t>
-  </si>
-  <si>
-    <t>[84.49-84.54]</t>
-  </si>
-  <si>
-    <t>[84.54-84.59]</t>
-  </si>
-  <si>
-    <t>[84.59-84.64]</t>
-  </si>
-  <si>
-    <t>[84.64-84.69]</t>
-  </si>
-  <si>
-    <t>[84.69-84.74]</t>
-  </si>
-  <si>
-    <t>[84.74-84.79]</t>
+    <t>[3.918-3.92]</t>
+  </si>
+  <si>
+    <t>[3.92-3.921]</t>
+  </si>
+  <si>
+    <t>[3.921-3.923]</t>
+  </si>
+  <si>
+    <t>[3.923-3.925]</t>
+  </si>
+  <si>
+    <t>[3.925-3.926]</t>
+  </si>
+  <si>
+    <t>[3.926-3.928]</t>
+  </si>
+  <si>
+    <t>[3.928-3.93]</t>
+  </si>
+  <si>
+    <t>[3.93-3.932]</t>
+  </si>
+  <si>
+    <t>[3.932-3.933]</t>
+  </si>
+  <si>
+    <t>[3.933-3.935]</t>
+  </si>
+  <si>
+    <t>[3.935-3.937]</t>
+  </si>
+  <si>
+    <t>[3.937-3.938]</t>
+  </si>
+  <si>
+    <t>[3.938-3.94]</t>
+  </si>
+  <si>
+    <t>[3.94-3.942]</t>
+  </si>
+  <si>
+    <t>[10.88-10.89]</t>
+  </si>
+  <si>
+    <t>[10.89-10.9]</t>
+  </si>
+  <si>
+    <t>[10.9-10.91]</t>
+  </si>
+  <si>
+    <t>[10.91-10.92]</t>
+  </si>
+  <si>
+    <t>[10.92-10.93]</t>
+  </si>
+  <si>
+    <t>[10.93-10.94]</t>
+  </si>
+  <si>
+    <t>[10.94-10.95]</t>
+  </si>
+  <si>
+    <t>[10.95-10.96]</t>
+  </si>
+  <si>
+    <t>[10.96-10.97]</t>
+  </si>
+  <si>
+    <t>[10.97-10.98]</t>
+  </si>
+  <si>
+    <t>[10.98-10.99]</t>
+  </si>
+  <si>
+    <t>[10.99-11.0]</t>
+  </si>
+  <si>
+    <t>[11.0-11.01]</t>
+  </si>
+  <si>
+    <t>[11.01-11.02]</t>
+  </si>
+  <si>
+    <t>[84.43-84.46]</t>
+  </si>
+  <si>
+    <t>[84.46-84.48]</t>
+  </si>
+  <si>
+    <t>[84.48-84.51]</t>
+  </si>
+  <si>
+    <t>[84.51-84.53]</t>
+  </si>
+  <si>
+    <t>[84.53-84.55]</t>
+  </si>
+  <si>
+    <t>[84.55-84.58]</t>
+  </si>
+  <si>
+    <t>[84.58-84.6]</t>
+  </si>
+  <si>
+    <t>[84.6-84.63]</t>
+  </si>
+  <si>
+    <t>[84.63-84.65]</t>
+  </si>
+  <si>
+    <t>[84.65-84.68]</t>
+  </si>
+  <si>
+    <t>[84.68-84.7]</t>
+  </si>
+  <si>
+    <t>[84.7-84.73]</t>
+  </si>
+  <si>
+    <t>[84.73-84.75]</t>
+  </si>
+  <si>
+    <t>[84.75-84.78]</t>
   </si>
 </sst>
 </file>
@@ -248,22 +248,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>27</c:v>
@@ -293,19 +293,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -435,46 +435,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.941-3.944]</c:v>
+                  <c:v>[3.918-3.92]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.944-3.948]</c:v>
+                  <c:v>[3.92-3.921]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.948-3.951]</c:v>
+                  <c:v>[3.921-3.923]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.951-3.955]</c:v>
+                  <c:v>[3.923-3.925]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.955-3.958]</c:v>
+                  <c:v>[3.925-3.926]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.958-3.962]</c:v>
+                  <c:v>[3.926-3.928]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[3.962-3.965]</c:v>
+                  <c:v>[3.928-3.93]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[3.965-3.969]</c:v>
+                  <c:v>[3.93-3.932]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[3.969-3.972]</c:v>
+                  <c:v>[3.932-3.933]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[3.972-3.976]</c:v>
+                  <c:v>[3.933-3.935]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[3.976-3.979]</c:v>
+                  <c:v>[3.935-3.937]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[3.979-3.983]</c:v>
+                  <c:v>[3.937-3.938]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[3.983-3.986]</c:v>
+                  <c:v>[3.938-3.94]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[3.986-3.99]</c:v>
+                  <c:v>[3.94-3.942]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -492,34 +492,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -662,46 +662,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[10.61-10.63]</c:v>
+                  <c:v>[10.88-10.89]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[10.63-10.65]</c:v>
+                  <c:v>[10.89-10.9]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[10.65-10.67]</c:v>
+                  <c:v>[10.9-10.91]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.67-10.69]</c:v>
+                  <c:v>[10.91-10.92]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.69-10.71]</c:v>
+                  <c:v>[10.92-10.93]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[10.71-10.73]</c:v>
+                  <c:v>[10.93-10.94]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.73-10.75]</c:v>
+                  <c:v>[10.94-10.95]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[10.75-10.77]</c:v>
+                  <c:v>[10.95-10.96]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[10.77-10.79]</c:v>
+                  <c:v>[10.96-10.97]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[10.79-10.81]</c:v>
+                  <c:v>[10.97-10.98]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[10.81-10.83]</c:v>
+                  <c:v>[10.98-10.99]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[10.83-10.85]</c:v>
+                  <c:v>[10.99-11.0]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[10.85-10.87]</c:v>
+                  <c:v>[11.0-11.01]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[10.87-10.89]</c:v>
+                  <c:v>[11.01-11.02]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -719,7 +719,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -728,16 +728,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -746,7 +746,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -889,46 +889,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[84.09-84.14]</c:v>
+                  <c:v>[84.43-84.46]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[84.14-84.19]</c:v>
+                  <c:v>[84.46-84.48]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[84.19-84.24]</c:v>
+                  <c:v>[84.48-84.51]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[84.24-84.29]</c:v>
+                  <c:v>[84.51-84.53]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[84.29-84.34]</c:v>
+                  <c:v>[84.53-84.55]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[84.34-84.39]</c:v>
+                  <c:v>[84.55-84.58]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[84.39-84.44]</c:v>
+                  <c:v>[84.58-84.6]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.44-84.49]</c:v>
+                  <c:v>[84.6-84.63]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.49-84.54]</c:v>
+                  <c:v>[84.63-84.65]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.54-84.59]</c:v>
+                  <c:v>[84.65-84.68]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.59-84.64]</c:v>
+                  <c:v>[84.68-84.7]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.64-84.69]</c:v>
+                  <c:v>[84.7-84.73]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.69-84.74]</c:v>
+                  <c:v>[84.73-84.75]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[84.74-84.79]</c:v>
+                  <c:v>[84.75-84.78]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -940,7 +940,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -958,7 +958,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1509,7 +1509,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1533,10 +1533,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1544,12 +1544,12 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1568,7 +1568,7 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1619,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1643,7 +1643,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1659,7 +1659,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1675,7 +1675,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1691,7 +1691,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1745,7 +1745,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1769,7 +1769,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1777,7 +1777,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1793,7 +1793,7 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1817,7 +1817,7 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>28</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>34</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/graphs_market_aware.xlsx
+++ b/graphs_market_aware.xlsx
@@ -17,132 +17,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>[3.918-3.92]</t>
-  </si>
-  <si>
-    <t>[3.92-3.921]</t>
-  </si>
-  <si>
-    <t>[3.921-3.923]</t>
-  </si>
-  <si>
-    <t>[3.923-3.925]</t>
-  </si>
-  <si>
-    <t>[3.925-3.926]</t>
-  </si>
-  <si>
-    <t>[3.926-3.928]</t>
-  </si>
-  <si>
-    <t>[3.928-3.93]</t>
-  </si>
-  <si>
-    <t>[3.93-3.932]</t>
-  </si>
-  <si>
-    <t>[3.932-3.933]</t>
-  </si>
-  <si>
-    <t>[3.933-3.935]</t>
-  </si>
-  <si>
-    <t>[3.935-3.937]</t>
-  </si>
-  <si>
-    <t>[3.937-3.938]</t>
-  </si>
-  <si>
-    <t>[3.938-3.94]</t>
-  </si>
-  <si>
-    <t>[3.94-3.942]</t>
-  </si>
-  <si>
-    <t>[10.88-10.89]</t>
-  </si>
-  <si>
-    <t>[10.89-10.9]</t>
-  </si>
-  <si>
-    <t>[10.9-10.91]</t>
-  </si>
-  <si>
-    <t>[10.91-10.92]</t>
-  </si>
-  <si>
-    <t>[10.92-10.93]</t>
-  </si>
-  <si>
-    <t>[10.93-10.94]</t>
-  </si>
-  <si>
-    <t>[10.94-10.95]</t>
-  </si>
-  <si>
-    <t>[10.95-10.96]</t>
-  </si>
-  <si>
-    <t>[10.96-10.97]</t>
-  </si>
-  <si>
-    <t>[10.97-10.98]</t>
-  </si>
-  <si>
-    <t>[10.98-10.99]</t>
-  </si>
-  <si>
-    <t>[10.99-11.0]</t>
-  </si>
-  <si>
-    <t>[11.0-11.01]</t>
-  </si>
-  <si>
-    <t>[11.01-11.02]</t>
-  </si>
-  <si>
-    <t>[84.43-84.46]</t>
-  </si>
-  <si>
-    <t>[84.46-84.48]</t>
-  </si>
-  <si>
-    <t>[84.48-84.51]</t>
-  </si>
-  <si>
-    <t>[84.51-84.53]</t>
-  </si>
-  <si>
-    <t>[84.53-84.55]</t>
-  </si>
-  <si>
-    <t>[84.55-84.58]</t>
-  </si>
-  <si>
-    <t>[84.58-84.6]</t>
-  </si>
-  <si>
-    <t>[84.6-84.63]</t>
-  </si>
-  <si>
-    <t>[84.63-84.65]</t>
-  </si>
-  <si>
-    <t>[84.65-84.68]</t>
-  </si>
-  <si>
-    <t>[84.68-84.7]</t>
-  </si>
-  <si>
-    <t>[84.7-84.73]</t>
-  </si>
-  <si>
-    <t>[84.73-84.75]</t>
-  </si>
-  <si>
-    <t>[84.75-84.78]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+  <si>
+    <t>[4.047-4.049]</t>
+  </si>
+  <si>
+    <t>[4.049-4.05]</t>
+  </si>
+  <si>
+    <t>[4.05-4.052]</t>
+  </si>
+  <si>
+    <t>[4.052-4.053]</t>
+  </si>
+  <si>
+    <t>[4.053-4.055]</t>
+  </si>
+  <si>
+    <t>[4.055-4.056]</t>
+  </si>
+  <si>
+    <t>[4.056-4.057]</t>
+  </si>
+  <si>
+    <t>[4.057-4.059]</t>
+  </si>
+  <si>
+    <t>[4.059-4.06]</t>
+  </si>
+  <si>
+    <t>[4.06-4.062]</t>
+  </si>
+  <si>
+    <t>[4.062-4.063]</t>
+  </si>
+  <si>
+    <t>[4.063-4.065]</t>
+  </si>
+  <si>
+    <t>[4.065-4.066]</t>
+  </si>
+  <si>
+    <t>[4.066-4.067]</t>
+  </si>
+  <si>
+    <t>[10.13-10.14]</t>
+  </si>
+  <si>
+    <t>[10.14-10.15]</t>
+  </si>
+  <si>
+    <t>[10.15-10.16]</t>
+  </si>
+  <si>
+    <t>[10.16-10.16]</t>
+  </si>
+  <si>
+    <t>[10.16-10.17]</t>
+  </si>
+  <si>
+    <t>[10.17-10.18]</t>
+  </si>
+  <si>
+    <t>[10.18-10.18]</t>
+  </si>
+  <si>
+    <t>[10.18-10.19]</t>
+  </si>
+  <si>
+    <t>[10.19-10.2]</t>
+  </si>
+  <si>
+    <t>[10.2-10.21]</t>
+  </si>
+  <si>
+    <t>[10.21-10.21]</t>
+  </si>
+  <si>
+    <t>[10.21-10.22]</t>
+  </si>
+  <si>
+    <t>[10.22-10.23]</t>
+  </si>
+  <si>
+    <t>[10.23-10.23]</t>
+  </si>
+  <si>
+    <t>[84.12-84.12]</t>
+  </si>
+  <si>
+    <t>[84.12-84.13]</t>
+  </si>
+  <si>
+    <t>[84.13-84.13]</t>
+  </si>
+  <si>
+    <t>[84.13-84.14]</t>
   </si>
 </sst>
 </file>
@@ -248,31 +218,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,16 +266,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -435,46 +405,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.918-3.92]</c:v>
+                  <c:v>[4.047-4.049]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.92-3.921]</c:v>
+                  <c:v>[4.049-4.05]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.921-3.923]</c:v>
+                  <c:v>[4.05-4.052]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.923-3.925]</c:v>
+                  <c:v>[4.052-4.053]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.925-3.926]</c:v>
+                  <c:v>[4.053-4.055]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.926-3.928]</c:v>
+                  <c:v>[4.055-4.056]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[3.928-3.93]</c:v>
+                  <c:v>[4.056-4.057]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[3.93-3.932]</c:v>
+                  <c:v>[4.057-4.059]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[3.932-3.933]</c:v>
+                  <c:v>[4.059-4.06]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[3.933-3.935]</c:v>
+                  <c:v>[4.06-4.062]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[3.935-3.937]</c:v>
+                  <c:v>[4.062-4.063]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[3.937-3.938]</c:v>
+                  <c:v>[4.063-4.065]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[3.938-3.94]</c:v>
+                  <c:v>[4.065-4.066]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[3.94-3.942]</c:v>
+                  <c:v>[4.066-4.067]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -501,13 +471,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -662,46 +632,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[10.88-10.89]</c:v>
+                  <c:v>[10.13-10.14]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[10.89-10.9]</c:v>
+                  <c:v>[10.14-10.15]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[10.9-10.91]</c:v>
+                  <c:v>[10.15-10.16]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.91-10.92]</c:v>
+                  <c:v>[10.16-10.16]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.92-10.93]</c:v>
+                  <c:v>[10.16-10.17]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[10.93-10.94]</c:v>
+                  <c:v>[10.17-10.18]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.94-10.95]</c:v>
+                  <c:v>[10.18-10.18]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[10.95-10.96]</c:v>
+                  <c:v>[10.18-10.19]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[10.96-10.97]</c:v>
+                  <c:v>[10.19-10.2]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[10.97-10.98]</c:v>
+                  <c:v>[10.2-10.21]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[10.98-10.99]</c:v>
+                  <c:v>[10.21-10.21]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[10.99-11.0]</c:v>
+                  <c:v>[10.21-10.22]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[11.0-11.01]</c:v>
+                  <c:v>[10.22-10.23]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[11.01-11.02]</c:v>
+                  <c:v>[10.23-10.23]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -728,16 +698,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -889,46 +859,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[84.43-84.46]</c:v>
+                  <c:v>[84.12-84.12]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[84.46-84.48]</c:v>
+                  <c:v>[84.12-84.12]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[84.48-84.51]</c:v>
+                  <c:v>[84.12-84.12]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[84.51-84.53]</c:v>
+                  <c:v>[84.12-84.12]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[84.53-84.55]</c:v>
+                  <c:v>[84.12-84.12]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[84.55-84.58]</c:v>
+                  <c:v>[84.12-84.12]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[84.58-84.6]</c:v>
+                  <c:v>[84.12-84.13]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.6-84.63]</c:v>
+                  <c:v>[84.13-84.13]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.63-84.65]</c:v>
+                  <c:v>[84.13-84.13]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.65-84.68]</c:v>
+                  <c:v>[84.13-84.13]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.68-84.7]</c:v>
+                  <c:v>[84.13-84.13]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.7-84.73]</c:v>
+                  <c:v>[84.13-84.13]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.73-84.75]</c:v>
+                  <c:v>[84.13-84.13]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[84.75-84.78]</c:v>
+                  <c:v>[84.13-84.14]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -940,7 +910,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -958,7 +928,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -979,7 +949,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1509,7 +1479,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1517,7 +1487,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1525,7 +1495,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1533,7 +1503,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1541,15 +1511,15 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1557,23 +1527,23 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1581,7 +1551,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1643,7 +1613,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1659,7 +1629,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1769,7 +1739,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1777,7 +1747,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1785,7 +1755,7 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1793,7 +1763,7 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1855,12 +1825,12 @@
         <v>28</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1868,7 +1838,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1876,7 +1846,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1884,7 +1854,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1892,7 +1862,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1900,15 +1870,15 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1916,7 +1886,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1924,7 +1894,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1932,7 +1902,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1940,7 +1910,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1948,7 +1918,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1956,10 +1926,10 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/graphs_market_aware.xlsx
+++ b/graphs_market_aware.xlsx
@@ -17,102 +17,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
-  <si>
-    <t>[4.047-4.049]</t>
-  </si>
-  <si>
-    <t>[4.049-4.05]</t>
-  </si>
-  <si>
-    <t>[4.05-4.052]</t>
-  </si>
-  <si>
-    <t>[4.052-4.053]</t>
-  </si>
-  <si>
-    <t>[4.053-4.055]</t>
-  </si>
-  <si>
-    <t>[4.055-4.056]</t>
-  </si>
-  <si>
-    <t>[4.056-4.057]</t>
-  </si>
-  <si>
-    <t>[4.057-4.059]</t>
-  </si>
-  <si>
-    <t>[4.059-4.06]</t>
-  </si>
-  <si>
-    <t>[4.06-4.062]</t>
-  </si>
-  <si>
-    <t>[4.062-4.063]</t>
-  </si>
-  <si>
-    <t>[4.063-4.065]</t>
-  </si>
-  <si>
-    <t>[4.065-4.066]</t>
-  </si>
-  <si>
-    <t>[4.066-4.067]</t>
-  </si>
-  <si>
-    <t>[10.13-10.14]</t>
-  </si>
-  <si>
-    <t>[10.14-10.15]</t>
-  </si>
-  <si>
-    <t>[10.15-10.16]</t>
-  </si>
-  <si>
-    <t>[10.16-10.16]</t>
-  </si>
-  <si>
-    <t>[10.16-10.17]</t>
-  </si>
-  <si>
-    <t>[10.17-10.18]</t>
-  </si>
-  <si>
-    <t>[10.18-10.18]</t>
-  </si>
-  <si>
-    <t>[10.18-10.19]</t>
-  </si>
-  <si>
-    <t>[10.19-10.2]</t>
-  </si>
-  <si>
-    <t>[10.2-10.21]</t>
-  </si>
-  <si>
-    <t>[10.21-10.21]</t>
-  </si>
-  <si>
-    <t>[10.21-10.22]</t>
-  </si>
-  <si>
-    <t>[10.22-10.23]</t>
-  </si>
-  <si>
-    <t>[10.23-10.23]</t>
-  </si>
-  <si>
-    <t>[84.12-84.12]</t>
-  </si>
-  <si>
-    <t>[84.12-84.13]</t>
-  </si>
-  <si>
-    <t>[84.13-84.13]</t>
-  </si>
-  <si>
-    <t>[84.13-84.14]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+  <si>
+    <t>[3.404-3.406]</t>
+  </si>
+  <si>
+    <t>[3.406-3.407]</t>
+  </si>
+  <si>
+    <t>[3.407-3.409]</t>
+  </si>
+  <si>
+    <t>[3.409-3.41]</t>
+  </si>
+  <si>
+    <t>[3.41-3.412]</t>
+  </si>
+  <si>
+    <t>[3.412-3.413]</t>
+  </si>
+  <si>
+    <t>[3.413-3.414]</t>
+  </si>
+  <si>
+    <t>[3.414-3.416]</t>
+  </si>
+  <si>
+    <t>[3.416-3.417]</t>
+  </si>
+  <si>
+    <t>[3.417-3.419]</t>
+  </si>
+  <si>
+    <t>[3.419-3.42]</t>
+  </si>
+  <si>
+    <t>[3.42-3.422]</t>
+  </si>
+  <si>
+    <t>[3.422-3.423]</t>
+  </si>
+  <si>
+    <t>[3.423-3.424]</t>
+  </si>
+  <si>
+    <t>[12.09-12.1]</t>
+  </si>
+  <si>
+    <t>[12.1-12.11]</t>
+  </si>
+  <si>
+    <t>[12.11-12.12]</t>
+  </si>
+  <si>
+    <t>[12.12-12.12]</t>
+  </si>
+  <si>
+    <t>[12.12-12.13]</t>
+  </si>
+  <si>
+    <t>[12.13-12.14]</t>
+  </si>
+  <si>
+    <t>[12.14-12.14]</t>
+  </si>
+  <si>
+    <t>[12.14-12.15]</t>
+  </si>
+  <si>
+    <t>[12.15-12.16]</t>
+  </si>
+  <si>
+    <t>[12.16-12.17]</t>
+  </si>
+  <si>
+    <t>[12.17-12.17]</t>
+  </si>
+  <si>
+    <t>[12.17-12.18]</t>
+  </si>
+  <si>
+    <t>[12.18-12.19]</t>
+  </si>
+  <si>
+    <t>[12.19-12.19]</t>
+  </si>
+  <si>
+    <t>[77.62-77.62]</t>
+  </si>
+  <si>
+    <t>[77.62-77.63]</t>
+  </si>
+  <si>
+    <t>[77.63-77.63]</t>
+  </si>
+  <si>
+    <t>[77.63-77.64]</t>
+  </si>
+  <si>
+    <t>[77.64-77.64]</t>
   </si>
 </sst>
 </file>
@@ -218,31 +221,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -405,46 +408,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[4.047-4.049]</c:v>
+                  <c:v>[3.404-3.406]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[4.049-4.05]</c:v>
+                  <c:v>[3.406-3.407]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[4.05-4.052]</c:v>
+                  <c:v>[3.407-3.409]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[4.052-4.053]</c:v>
+                  <c:v>[3.409-3.41]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[4.053-4.055]</c:v>
+                  <c:v>[3.41-3.412]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[4.055-4.056]</c:v>
+                  <c:v>[3.412-3.413]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[4.056-4.057]</c:v>
+                  <c:v>[3.413-3.414]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[4.057-4.059]</c:v>
+                  <c:v>[3.414-3.416]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[4.059-4.06]</c:v>
+                  <c:v>[3.416-3.417]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[4.06-4.062]</c:v>
+                  <c:v>[3.417-3.419]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[4.062-4.063]</c:v>
+                  <c:v>[3.419-3.42]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[4.063-4.065]</c:v>
+                  <c:v>[3.42-3.422]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[4.065-4.066]</c:v>
+                  <c:v>[3.422-3.423]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[4.066-4.067]</c:v>
+                  <c:v>[3.423-3.424]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -632,46 +635,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[10.13-10.14]</c:v>
+                  <c:v>[12.09-12.1]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[10.14-10.15]</c:v>
+                  <c:v>[12.1-12.11]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[10.15-10.16]</c:v>
+                  <c:v>[12.11-12.12]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.16-10.16]</c:v>
+                  <c:v>[12.12-12.12]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[10.16-10.17]</c:v>
+                  <c:v>[12.12-12.13]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[10.17-10.18]</c:v>
+                  <c:v>[12.13-12.14]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[10.18-10.18]</c:v>
+                  <c:v>[12.14-12.14]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[10.18-10.19]</c:v>
+                  <c:v>[12.14-12.15]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[10.19-10.2]</c:v>
+                  <c:v>[12.15-12.16]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[10.2-10.21]</c:v>
+                  <c:v>[12.16-12.17]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[10.21-10.21]</c:v>
+                  <c:v>[12.17-12.17]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[10.21-10.22]</c:v>
+                  <c:v>[12.17-12.18]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[10.22-10.23]</c:v>
+                  <c:v>[12.18-12.19]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[10.23-10.23]</c:v>
+                  <c:v>[12.19-12.19]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -859,46 +862,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[84.12-84.12]</c:v>
+                  <c:v>[77.62-77.62]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[84.12-84.12]</c:v>
+                  <c:v>[77.62-77.62]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[84.12-84.12]</c:v>
+                  <c:v>[77.62-77.63]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[84.12-84.12]</c:v>
+                  <c:v>[77.63-77.63]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[84.12-84.12]</c:v>
+                  <c:v>[77.63-77.63]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[84.12-84.12]</c:v>
+                  <c:v>[77.63-77.63]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[84.12-84.13]</c:v>
+                  <c:v>[77.63-77.63]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.13-84.13]</c:v>
+                  <c:v>[77.63-77.63]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.13-84.13]</c:v>
+                  <c:v>[77.63-77.63]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.13-84.13]</c:v>
+                  <c:v>[77.63-77.64]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.13-84.13]</c:v>
+                  <c:v>[77.64-77.64]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.13-84.13]</c:v>
+                  <c:v>[77.64-77.64]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.13-84.13]</c:v>
+                  <c:v>[77.64-77.64]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[84.13-84.14]</c:v>
+                  <c:v>[77.64-77.64]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -928,16 +931,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1479,7 +1482,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1487,7 +1490,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1495,7 +1498,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1503,7 +1506,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1511,7 +1514,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1519,7 +1522,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1527,7 +1530,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1535,7 +1538,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1551,7 +1554,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1838,7 +1841,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1846,7 +1849,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1854,7 +1857,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1862,7 +1865,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1870,10 +1873,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1894,15 +1897,15 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1910,7 +1913,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1918,7 +1921,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1926,7 +1929,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>0</v>
